--- a/biology/Botanique/Cytisus_arboreus/Cytisus_arboreus.xlsx
+++ b/biology/Botanique/Cytisus_arboreus/Cytisus_arboreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytise arboré, Cytise arborescent, Genêt de Catalogne, Cytise de Catalogne
 Cytisus arboreus, le Cytise arboré, Cytise arborescent, Genêt de Catalogne ou Cytise de Catalogne, est une espèce d'arbustes de la famille des Fabaceae, endémique de l'ouest de la région méditerranéenne.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste plus ou moins élevé, à feuilles pétiolées, trifoliées. Les folioles sont oblongues ou obovales, finement pubescentes en dessous. Les rameaux sont blanchâtres, anguleux, relevés de côtes vertes, souvent nus, non épineux au sommet[1].
-Les fleurs sont solitaires ou en petits fascicules axillaires. Le fruit est une gousse papyracée, plane, finement pubescente, longue de 4 à 5 cm et large de 8 mm. La carène est obtuse, ovoïde ; les ailes larges et ovoïdes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste plus ou moins élevé, à feuilles pétiolées, trifoliées. Les folioles sont oblongues ou obovales, finement pubescentes en dessous. Les rameaux sont blanchâtres, anguleux, relevés de côtes vertes, souvent nus, non épineux au sommet.
+Les fleurs sont solitaires ou en petits fascicules axillaires. Le fruit est une gousse papyracée, plane, finement pubescente, longue de 4 à 5 cm et large de 8 mm. La carène est obtuse, ovoïde ; les ailes larges et ovoïdes.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique de l'ouest de la région méditerranéenne, présente uniquement en Algérie, en Espagne, en France continentale, au Maroc et au Portugal. L'étendue de son aire de répartition est estimée à plus de 150 000 km2[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de l'ouest de la région méditerranéenne, présente uniquement en Algérie, en Espagne, en France continentale, au Maroc et au Portugal. L'étendue de son aire de répartition est estimée à plus de 150 000 km2.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans les fourrés, les forêts de l'étage montagnard inférieur et parmi les buissons méditerranéens, entre 30 et 1 000 m d'altitude[2]
-En France, c'est une espèce indicatrice des suberaies des Pyrénées orientales et des yeuseraies acidiphiles à Asplénium fougère d'âne[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans les fourrés, les forêts de l'étage montagnard inférieur et parmi les buissons méditerranéens, entre 30 et 1 000 m d'altitude
+En France, c'est une espèce indicatrice des suberaies des Pyrénées orientales et des yeuseraies acidiphiles à Asplénium fougère d'âne.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cytisus arboreus (Desf.) DC.[4], publié en 1825 par le botaniste suisse Augustin Pyrame de Candolle[5]. L'espèce a été initialement décrite en 1798 dans le genre Spartium sous le basionyme Spartium arboreum, par le botaniste français René Desfontaines[6].
-Le nom francophone recommandé ou typique de cette espèce est « Cytise arborescent[7] ». Elle est aussi nommée « Cytise arboré », « Genêt de Catalogne » ou « Cytise de Catalogne »[3].
-Cytisus arboreus a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cytisus arboreus (Desf.) DC., publié en 1825 par le botaniste suisse Augustin Pyrame de Candolle. L'espèce a été initialement décrite en 1798 dans le genre Spartium sous le basionyme Spartium arboreum, par le botaniste français René Desfontaines.
+Le nom francophone recommandé ou typique de cette espèce est « Cytise arborescent ». Elle est aussi nommée « Cytise arboré », « Genêt de Catalogne » ou « Cytise de Catalogne ».
+Cytisus arboreus a pour synonymes :
 (homotypiques)
 Cytisogenista arborea (Desf.) Rothm. in Repert. Spec. Nov. Regni Veg. 49: 56 (1940)
 Genista arborea (Desf.) Poir. in J.B.A.M.de Lamarck, Encycl., Suppl. 2: 719 (1812)
@@ -686,9 +706,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est utilisée comme bois de chauffage, comme outil de balayage et peut être utilisée comme fourrage[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est utilisée comme bois de chauffage, comme outil de balayage et peut être utilisée comme fourrage.
 </t>
         </is>
       </c>
